--- a/Cuidado_com_os_dados.xlsx
+++ b/Cuidado_com_os_dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatrizfavero-ieg\OneDrive - Instituto J&amp;F\2024\GEDAI\qrcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E88969C-1B68-4A04-BE10-5183430F0B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551CFF0-DC7C-4CCF-9DB0-142A07C00BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8FE8A81-DD81-46B7-80D4-4930D603A122}"/>
+    <workbookView xWindow="3330" yWindow="-12150" windowWidth="28800" windowHeight="11715" xr2:uid="{C8FE8A81-DD81-46B7-80D4-4930D603A122}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7001" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7001" uniqueCount="774">
   <si>
     <t>Inscrição</t>
   </si>
@@ -2244,9 +2244,6 @@
   </si>
   <si>
     <t xml:space="preserve">Falta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turma3 </t>
   </si>
   <si>
     <t xml:space="preserve">T3 </t>
@@ -8830,8 +8827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37C5817-5837-40DE-8430-29301AC03033}">
   <dimension ref="A1:S349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="I343" sqref="I343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11770,7 +11767,7 @@
         <v>32</v>
       </c>
       <c r="L74" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -11778,7 +11775,7 @@
         <v>269</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C75" s="38" t="s">
         <v>15</v>
@@ -12411,7 +12408,7 @@
         <v>549</v>
       </c>
       <c r="B93" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -13071,7 +13068,7 @@
         <v>70</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
@@ -13109,7 +13106,7 @@
         <v>44</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -13847,7 +13844,7 @@
         <v>44</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
@@ -14658,7 +14655,7 @@
         <v>70</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -18401,7 +18398,7 @@
         <v>44</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
@@ -20163,7 +20160,7 @@
         <v>57</v>
       </c>
       <c r="L312" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
@@ -20341,7 +20338,7 @@
         <v>70</v>
       </c>
       <c r="L317" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
@@ -21213,24 +21210,24 @@
         <v>734</v>
       </c>
       <c r="I342" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J342" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="J342" s="7" t="s">
+      <c r="K342" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="K342" s="7" t="s">
+      <c r="L342" s="33" t="s">
         <v>737</v>
-      </c>
-      <c r="L342" s="33" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="B343" s="24" t="s">
         <v>739</v>
-      </c>
-      <c r="B343" s="24" t="s">
-        <v>740</v>
       </c>
       <c r="C343" s="24" t="s">
         <v>15</v>
@@ -21245,10 +21242,10 @@
         <v>17</v>
       </c>
       <c r="G343" s="25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H343" s="25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I343" s="26" t="s">
         <v>39</v>
@@ -21260,15 +21257,15 @@
         <v>32</v>
       </c>
       <c r="L343" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="B344" s="24" t="s">
         <v>742</v>
-      </c>
-      <c r="B344" s="24" t="s">
-        <v>743</v>
       </c>
       <c r="C344" s="24" t="s">
         <v>15</v>
@@ -21283,10 +21280,10 @@
         <v>29</v>
       </c>
       <c r="G344" s="25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H344" s="25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I344" s="26" t="s">
         <v>48</v>
@@ -21298,15 +21295,15 @@
         <v>80</v>
       </c>
       <c r="L344" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B345" s="24" t="s">
         <v>744</v>
-      </c>
-      <c r="B345" s="24" t="s">
-        <v>745</v>
       </c>
       <c r="C345" s="24" t="s">
         <v>27</v>
@@ -21332,15 +21329,15 @@
         <v>70</v>
       </c>
       <c r="L345" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="B346" s="20" t="s">
         <v>746</v>
-      </c>
-      <c r="B346" s="20" t="s">
-        <v>747</v>
       </c>
       <c r="C346" s="20" t="s">
         <v>27</v>
@@ -21355,10 +21352,10 @@
         <v>29</v>
       </c>
       <c r="G346" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H346" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I346" s="22" t="s">
         <v>30</v>
@@ -21372,10 +21369,10 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="B347" s="20" t="s">
         <v>748</v>
-      </c>
-      <c r="B347" s="20" t="s">
-        <v>749</v>
       </c>
       <c r="C347" s="20" t="s">
         <v>15</v>
@@ -21390,10 +21387,10 @@
         <v>17</v>
       </c>
       <c r="G347" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H347" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I347" s="22" t="s">
         <v>53</v>
@@ -21407,10 +21404,10 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="B348" s="20" t="s">
         <v>750</v>
-      </c>
-      <c r="B348" s="20" t="s">
-        <v>751</v>
       </c>
       <c r="C348" s="20" t="s">
         <v>27</v>
@@ -21425,10 +21422,10 @@
         <v>17</v>
       </c>
       <c r="G348" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H348" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I348" s="22" t="s">
         <v>42</v>
@@ -21442,10 +21439,10 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="B349" s="20" t="s">
         <v>752</v>
-      </c>
-      <c r="B349" s="20" t="s">
-        <v>753</v>
       </c>
       <c r="C349" s="20" t="s">
         <v>27</v>
@@ -21460,10 +21457,10 @@
         <v>29</v>
       </c>
       <c r="G349" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H349" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I349" s="22" t="s">
         <v>23</v>
@@ -21612,7 +21609,7 @@
         <v>80</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N2" s="65"/>
     </row>
@@ -21735,7 +21732,7 @@
         <v>32</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N5" s="15">
         <f>COUNTIF(G:G,M5)</f>
@@ -21900,7 +21897,7 @@
         <v>57</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N9" s="17">
         <f>COUNTIF(H:H,M9)</f>
@@ -22787,7 +22784,7 @@
         <v>269</v>
       </c>
       <c r="B35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -23907,7 +23904,7 @@
         <v>449</v>
       </c>
       <c r="B67" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -24292,7 +24289,7 @@
         <v>425</v>
       </c>
       <c r="B78" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -24607,7 +24604,7 @@
         <v>397</v>
       </c>
       <c r="B87" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -24642,7 +24639,7 @@
         <v>395</v>
       </c>
       <c r="B88" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -24677,7 +24674,7 @@
         <v>391</v>
       </c>
       <c r="B89" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -24817,7 +24814,7 @@
         <v>367</v>
       </c>
       <c r="B93" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -24957,7 +24954,7 @@
         <v>349</v>
       </c>
       <c r="B97" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
@@ -25272,7 +25269,7 @@
         <v>309</v>
       </c>
       <c r="B106" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
@@ -26217,7 +26214,7 @@
         <v>209</v>
       </c>
       <c r="B133" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -27692,7 +27689,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N2" s="65"/>
     </row>
@@ -27815,7 +27812,7 @@
         <v>44</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N5" s="15">
         <f>COUNTIF(G:G,M5)</f>
@@ -27950,7 +27947,7 @@
         <v>713</v>
       </c>
       <c r="B9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -27980,7 +27977,7 @@
         <v>32</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N9" s="17">
         <f>COUNTIF(H:H,M9)</f>
@@ -29182,7 +29179,7 @@
         <v>571</v>
       </c>
       <c r="B44" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -30442,7 +30439,7 @@
         <v>417</v>
       </c>
       <c r="B80" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
@@ -30547,7 +30544,7 @@
         <v>401</v>
       </c>
       <c r="B83" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -30617,7 +30614,7 @@
         <v>389</v>
       </c>
       <c r="B85" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -31282,7 +31279,7 @@
         <v>321</v>
       </c>
       <c r="B104" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C104" t="s">
         <v>15</v>
@@ -33672,14 +33669,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e233c751-149c-47fd-a32f-6b21c2b8e335" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc394e48-27f0-4ede-bc43-58f753f8f173">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33918,23 +33913,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e233c751-149c-47fd-a32f-6b21c2b8e335" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc394e48-27f0-4ede-bc43-58f753f8f173">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0781F8E9-1B4C-4048-9A8B-BB6471BD41B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4DA6999-D622-4758-A68D-B6B695720E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="e233c751-149c-47fd-a32f-6b21c2b8e335"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="cc394e48-27f0-4ede-bc43-58f753f8f173"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33959,9 +33951,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4DA6999-D622-4758-A68D-B6B695720E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0781F8E9-1B4C-4048-9A8B-BB6471BD41B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="e233c751-149c-47fd-a32f-6b21c2b8e335"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="cc394e48-27f0-4ede-bc43-58f753f8f173"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>